--- a/python/tests/pytest_empty.xlsx
+++ b/python/tests/pytest_empty.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
   <si>
     <t>description</t>
   </si>
@@ -1198,13 +1198,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1377,154 +1377,1158 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="114">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
+  <dxfs count="113">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1552,6 +2556,86 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -1570,6 +2654,24 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1630,16 +2732,119 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1657,7 +2862,7 @@
     <dxf>
       <font>
         <b val="0"/>
-        <i val="0"/>
+        <i/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1675,24 +2880,41 @@
     <dxf>
       <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1708,109 +2930,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i/>
         <strike val="0"/>
@@ -1828,25 +2947,8 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1863,8 +2965,42 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i/>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1882,24 +3018,24 @@
     <dxf>
       <font>
         <b/>
-        <i/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
@@ -1915,635 +3051,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2559,530 +3066,6 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" justifyLastLine="0" shrinkToFit="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -3282,9 +3265,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
-    <tableColumn id="2" name="Column names" dataDxfId="112"/>
-    <tableColumn id="3" name="Description" dataDxfId="111"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
+    <tableColumn id="2" name="Column names" dataDxfId="111"/>
+    <tableColumn id="3" name="Description" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3293,129 +3276,128 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="6" dataDxfId="11"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="7" dataDxfId="10"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="8" dataDxfId="9"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="73" dataDxfId="72"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="71" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="85"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="84"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="83"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="82"/>
-    <tableColumn id="5" name="target_start" dataDxfId="81"/>
-    <tableColumn id="6" name="target_end" dataDxfId="80"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="79"/>
+    <tableColumn id="1" name="target_name" dataDxfId="67"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="66"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="65"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="64"/>
+    <tableColumn id="5" name="target_start" dataDxfId="63"/>
+    <tableColumn id="6" name="target_end" dataDxfId="62"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="77">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="60">
   <tableColumns count="1">
-    <tableColumn id="1" name="description" dataDxfId="78"/>
+    <tableColumn id="1" name="description" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="88" dataDxfId="89">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="92"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="91"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="90"/>
+    <tableColumn id="1" name="target_name" dataDxfId="56"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="55"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="71" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="76"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="75"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="74"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="73"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="51"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="50"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="49"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="53" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="67"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="66"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="65"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="64"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="63"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="62"/>
-    <tableColumn id="7" name="chrom" dataDxfId="61"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="60"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="59"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="58"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="57"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="56"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="55"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="45"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
+    <tableColumn id="7" name="chrom" dataDxfId="39"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="49" dataDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="52"/>
-    <tableColumn id="2" name="description" dataDxfId="51"/>
+    <tableColumn id="1" name="score" dataDxfId="30"/>
+    <tableColumn id="2" name="description" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="44">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="48"/>
-    <tableColumn id="2" name="well_position" dataDxfId="47"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="46"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <tableColumns count="3">
+    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
+    <tableColumn id="2" name="well_position" dataDxfId="25"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="31" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="42"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="41"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="40"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="39"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="38"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="37"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="36"/>
-    <tableColumn id="8" name="content_type" dataDxfId="35"/>
-    <tableColumn id="9" name="is_control" dataDxfId="34"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="33"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
+    <tableColumn id="8" name="content_type" dataDxfId="14"/>
+    <tableColumn id="9" name="is_control" dataDxfId="13"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="1" dataDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="5"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="4"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="0"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="3"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3424,21 +3406,21 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
-    <tableColumn id="2" name="Column names" dataDxfId="109"/>
-    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
+    <tableColumn id="2" name="Column names" dataDxfId="108"/>
+    <tableColumn id="3" name="Description" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="98"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="97"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="96"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="95"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3447,9 +3429,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
-    <tableColumn id="2" name="Column names" dataDxfId="106"/>
-    <tableColumn id="3" name="Description" dataDxfId="105"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
+    <tableColumn id="2" name="Column names" dataDxfId="105"/>
+    <tableColumn id="3" name="Description" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3458,9 +3440,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="70"/>
-    <tableColumn id="2" name="Column names" dataDxfId="69"/>
-    <tableColumn id="3" name="Description" dataDxfId="68"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
+    <tableColumn id="2" name="Column names" dataDxfId="102"/>
+    <tableColumn id="3" name="Description" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3469,9 +3451,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
-    <tableColumn id="2" name="Column names" dataDxfId="103"/>
-    <tableColumn id="3" name="Description" dataDxfId="102"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="100"/>
+    <tableColumn id="2" name="Column names" dataDxfId="99"/>
+    <tableColumn id="3" name="Description" dataDxfId="98"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3480,9 +3462,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
-    <tableColumn id="2" name="Column names" dataDxfId="100"/>
-    <tableColumn id="3" name="Description" dataDxfId="99"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="97"/>
+    <tableColumn id="2" name="Column names" dataDxfId="96"/>
+    <tableColumn id="3" name="Description" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3491,20 +3473,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="25" dataDxfId="30"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="26" dataDxfId="29"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="27" dataDxfId="28"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="92" dataDxfId="91"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="90" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="21" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="88" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="18" dataDxfId="24" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="19" dataDxfId="23" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="20" dataDxfId="22" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3513,9 +3495,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="12" dataDxfId="17"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="13" dataDxfId="16"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="14" dataDxfId="15"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3858,25 +3840,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
@@ -4787,32 +4769,31 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B97"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="12.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27.1640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18" style="5" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="5" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="5" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="5"/>
+    <col min="3" max="3" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="18" style="5" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="5" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="5" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="6" customFormat="1">
+    <row r="1" spans="1:13" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>149</v>
       </c>
@@ -4820,39 +4801,36 @@
         <v>20</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>31</v>
+        <v>102</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>103</v>
+        <v>21</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4874,13 +4852,13 @@
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>K2:K1048576</xm:sqref>
+          <xm:sqref>J2:J1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$F$2:$F$8</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/python/tests/pytest_empty.xlsx
+++ b/python/tests/pytest_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="4"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="Menus" sheetId="9" r:id="rId8"/>
+    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
   <si>
     <t>description</t>
   </si>
@@ -891,6 +892,12 @@
   </si>
   <si>
     <t>NB. Orange tabs, tables and columns need to be filled, green ones are optionals.</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
   </si>
 </sst>
 </file>
@@ -1377,7 +1384,59 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="113">
+  <dxfs count="117">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3265,9 +3324,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
-    <tableColumn id="2" name="Column names" dataDxfId="111"/>
-    <tableColumn id="3" name="Description" dataDxfId="110"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="116"/>
+    <tableColumn id="2" name="Column names" dataDxfId="115"/>
+    <tableColumn id="3" name="Description" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3276,128 +3335,128 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="75" dataDxfId="74"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="73" dataDxfId="72"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="71" dataDxfId="70"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="75" dataDxfId="74"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="67"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="66"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="65"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="64"/>
-    <tableColumn id="5" name="target_start" dataDxfId="63"/>
-    <tableColumn id="6" name="target_end" dataDxfId="62"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="61"/>
+    <tableColumn id="1" name="target_name" dataDxfId="71"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="70"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="69"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="68"/>
+    <tableColumn id="5" name="target_start" dataDxfId="67"/>
+    <tableColumn id="6" name="target_end" dataDxfId="66"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="64">
   <tableColumns count="1">
-    <tableColumn id="1" name="description" dataDxfId="59"/>
+    <tableColumn id="1" name="description" dataDxfId="63"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="56"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="55"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="54"/>
+    <tableColumn id="1" name="target_name" dataDxfId="60"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="59"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="58"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="51"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="50"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="49"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="48"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="55"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="54"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="53"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="52"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
   <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="45"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="44"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="43"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="42"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="41"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="40"/>
-    <tableColumn id="7" name="chrom" dataDxfId="39"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="38"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="37"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="36"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="35"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="34"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="33"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="49"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="48"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="47"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="46"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="45"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="44"/>
+    <tableColumn id="7" name="chrom" dataDxfId="43"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="42"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="41"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="40"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="39"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="38"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="30"/>
-    <tableColumn id="2" name="description" dataDxfId="29"/>
+    <tableColumn id="1" name="score" dataDxfId="34"/>
+    <tableColumn id="2" name="description" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="26"/>
-    <tableColumn id="2" name="well_position" dataDxfId="25"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="24"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="30"/>
+    <tableColumn id="2" name="well_position" dataDxfId="29"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="21"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="20"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="19"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="18"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="17"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="16"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="15"/>
-    <tableColumn id="8" name="content_type" dataDxfId="14"/>
-    <tableColumn id="9" name="is_control" dataDxfId="13"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="12"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="25"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="24"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="23"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="22"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="21"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="20"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="19"/>
+    <tableColumn id="8" name="content_type" dataDxfId="18"/>
+    <tableColumn id="9" name="is_control" dataDxfId="17"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="9"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="8"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="7"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="6"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="13"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="12"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="11"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3406,21 +3465,31 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
-    <tableColumn id="2" name="Column names" dataDxfId="108"/>
-    <tableColumn id="3" name="Description" dataDxfId="107"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
+    <tableColumn id="2" name="Column names" dataDxfId="112"/>
+    <tableColumn id="3" name="Description" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="3"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="2"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="1"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="0"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="7"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="6"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="5"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table11" displayName="Table11" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="2">
+    <tableColumn id="1" name="sequence_name" dataDxfId="3" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3429,9 +3498,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
-    <tableColumn id="2" name="Column names" dataDxfId="105"/>
-    <tableColumn id="3" name="Description" dataDxfId="104"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
+    <tableColumn id="2" name="Column names" dataDxfId="109"/>
+    <tableColumn id="3" name="Description" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3440,9 +3509,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
-    <tableColumn id="2" name="Column names" dataDxfId="102"/>
-    <tableColumn id="3" name="Description" dataDxfId="101"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
+    <tableColumn id="2" name="Column names" dataDxfId="106"/>
+    <tableColumn id="3" name="Description" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3451,9 +3520,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="100"/>
-    <tableColumn id="2" name="Column names" dataDxfId="99"/>
-    <tableColumn id="3" name="Description" dataDxfId="98"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
+    <tableColumn id="2" name="Column names" dataDxfId="103"/>
+    <tableColumn id="3" name="Description" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3462,9 +3531,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="97"/>
-    <tableColumn id="2" name="Column names" dataDxfId="96"/>
-    <tableColumn id="3" name="Description" dataDxfId="95"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
+    <tableColumn id="2" name="Column names" dataDxfId="100"/>
+    <tableColumn id="3" name="Description" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3473,20 +3542,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="94" dataDxfId="93"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="90" dataDxfId="89"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="94" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="88" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="92" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="89" dataDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3495,9 +3564,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="85" dataDxfId="84"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="83" dataDxfId="82"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="81" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4771,7 +4840,7 @@
   </sheetPr>
   <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
@@ -5043,6 +5112,77 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/python/tests/pytest_empty.xlsx
+++ b/python/tests/pytest_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="7"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
   <si>
     <t>description</t>
   </si>
@@ -898,6 +898,9 @@
   </si>
   <si>
     <t>sequence_name</t>
+  </si>
+  <si>
+    <t>amplicon_name</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1188,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1214,6 +1217,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1384,7 +1388,37 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="117">
+  <dxfs count="119">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -3324,9 +3358,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="116"/>
-    <tableColumn id="2" name="Column names" dataDxfId="115"/>
-    <tableColumn id="3" name="Description" dataDxfId="114"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
+    <tableColumn id="2" name="Column names" dataDxfId="117"/>
+    <tableColumn id="3" name="Description" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3335,128 +3369,129 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="77" dataDxfId="76"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="75" dataDxfId="74"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="71"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="70"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="69"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="68"/>
-    <tableColumn id="5" name="target_start" dataDxfId="67"/>
-    <tableColumn id="6" name="target_end" dataDxfId="66"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="65"/>
+    <tableColumn id="1" name="target_name" dataDxfId="73"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="72"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="71"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="70"/>
+    <tableColumn id="5" name="target_start" dataDxfId="69"/>
+    <tableColumn id="6" name="target_end" dataDxfId="68"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="66">
   <tableColumns count="1">
-    <tableColumn id="1" name="description" dataDxfId="63"/>
+    <tableColumn id="1" name="description" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="62" dataDxfId="61">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="60"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="59"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="58"/>
+    <tableColumn id="1" name="target_name" dataDxfId="62"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="61"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="55"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="54"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="53"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="52"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="57"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="56"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="55"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="49"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="48"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="47"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="46"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="45"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="44"/>
-    <tableColumn id="7" name="chrom" dataDxfId="43"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="42"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="41"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="40"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="39"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="38"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+  <tableColumns count="14">
+    <tableColumn id="14" name="amplicon_name" dataDxfId="0"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="51"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="50"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="49"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="48"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="47"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="46"/>
+    <tableColumn id="7" name="chrom" dataDxfId="45"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="44"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="43"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="42"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="41"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="40"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="34"/>
-    <tableColumn id="2" name="description" dataDxfId="33"/>
+    <tableColumn id="1" name="score" dataDxfId="36"/>
+    <tableColumn id="2" name="description" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="30"/>
-    <tableColumn id="2" name="well_position" dataDxfId="29"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="28"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="32"/>
+    <tableColumn id="2" name="well_position" dataDxfId="31"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="25"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="24"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="23"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="22"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="21"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="20"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="19"/>
-    <tableColumn id="8" name="content_type" dataDxfId="18"/>
-    <tableColumn id="9" name="is_control" dataDxfId="17"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="16"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="27"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="26"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="25"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="24"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="23"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="22"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="21"/>
+    <tableColumn id="8" name="content_type" dataDxfId="20"/>
+    <tableColumn id="9" name="is_control" dataDxfId="19"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="13"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="12"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="11"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="10"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="15"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="14"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="13"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3465,29 +3500,30 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
-    <tableColumn id="2" name="Column names" dataDxfId="112"/>
-    <tableColumn id="3" name="Description" dataDxfId="111"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
+    <tableColumn id="2" name="Column names" dataDxfId="114"/>
+    <tableColumn id="3" name="Description" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="7"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="6"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="5"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="4"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="9"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="8"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="7"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table11" displayName="Table11" ref="A1:B9" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table11" displayName="Table11" ref="A1:C9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="3">
+    <tableColumn id="4" name="amplicon_name" dataDxfId="1" dataCellStyle="Normal"/>
     <tableColumn id="1" name="sequence_name" dataDxfId="3" dataCellStyle="Normal"/>
     <tableColumn id="2" name="sequence" dataDxfId="2" dataCellStyle="Normal"/>
   </tableColumns>
@@ -3498,9 +3534,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
-    <tableColumn id="2" name="Column names" dataDxfId="109"/>
-    <tableColumn id="3" name="Description" dataDxfId="108"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
+    <tableColumn id="2" name="Column names" dataDxfId="111"/>
+    <tableColumn id="3" name="Description" dataDxfId="110"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3509,9 +3545,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
-    <tableColumn id="2" name="Column names" dataDxfId="106"/>
-    <tableColumn id="3" name="Description" dataDxfId="105"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
+    <tableColumn id="2" name="Column names" dataDxfId="108"/>
+    <tableColumn id="3" name="Description" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3520,9 +3556,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
-    <tableColumn id="2" name="Column names" dataDxfId="103"/>
-    <tableColumn id="3" name="Description" dataDxfId="102"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
+    <tableColumn id="2" name="Column names" dataDxfId="105"/>
+    <tableColumn id="3" name="Description" dataDxfId="104"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3531,9 +3567,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="101"/>
-    <tableColumn id="2" name="Column names" dataDxfId="100"/>
-    <tableColumn id="3" name="Description" dataDxfId="99"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
+    <tableColumn id="2" name="Column names" dataDxfId="102"/>
+    <tableColumn id="3" name="Description" dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3542,20 +3578,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="96" dataDxfId="95"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="94" dataDxfId="93"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="100" dataDxfId="99"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="98" dataDxfId="97"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="96" dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="92" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="94" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="89" dataDxfId="88" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="87" dataDxfId="86" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="89" dataDxfId="88" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3564,9 +3600,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="85" dataDxfId="84"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="83" dataDxfId="82"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="81" dataDxfId="80"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4702,15 +4738,15 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" style="5" bestFit="1" customWidth="1"/>
@@ -4730,54 +4766,57 @@
     <col min="20" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="6" customFormat="1">
+    <row r="1" spans="1:16" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:16">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
@@ -4791,6 +4830,7 @@
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
@@ -4810,19 +4850,19 @@
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>F10:F1048576 G2:G9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>D10:D1048576 E2:E9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E1048576</xm:sqref>
+          <xm:sqref>E10:E1048576 F2:F9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5115,57 +5155,68 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="1" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="117.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="C1" s="5" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="20"/>
       <c r="B2" s="5"/>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="20"/>
       <c r="B3" s="5"/>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="5"/>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="20"/>
       <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="5"/>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="20"/>
       <c r="B5" s="5"/>
-    </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="5"/>
+      <c r="C5" s="5"/>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="20"/>
       <c r="B6" s="5"/>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="5"/>
+      <c r="C6" s="5"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="20"/>
       <c r="B7" s="5"/>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="5"/>
+      <c r="C7" s="5"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="20"/>
       <c r="B8" s="5"/>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="5"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="20"/>
       <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/python/tests/pytest_empty.xlsx
+++ b/python/tests/pytest_empty.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="3"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
   </bookViews>
   <sheets>
-    <sheet name="Documentation" sheetId="10" r:id="rId1"/>
+    <sheet name="Help" sheetId="10" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Guide" sheetId="3" r:id="rId3"/>
     <sheet name="Amplicon" sheetId="5" r:id="rId4"/>
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="TargetedSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -1208,6 +1208,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1217,7 +1218,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="167">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1391,613 +1391,613 @@
   <dxfs count="119">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3427,71 +3427,71 @@
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <tableColumns count="14">
-    <tableColumn id="14" name="amplicon_name" dataDxfId="0"/>
-    <tableColumn id="1" name="guide_name" dataDxfId="51"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="50"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="49"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="48"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="47"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="46"/>
-    <tableColumn id="7" name="chrom" dataDxfId="45"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="44"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="43"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="42"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="41"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="40"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="39"/>
+    <tableColumn id="14" name="amplicon_name" dataDxfId="51"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="50"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="49"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="48"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="47"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="46"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="45"/>
+    <tableColumn id="7" name="chrom" dataDxfId="44"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="43"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="42"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="41"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="40"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="39"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="36"/>
-    <tableColumn id="2" name="description" dataDxfId="35"/>
+    <tableColumn id="1" name="score" dataDxfId="35"/>
+    <tableColumn id="2" name="description" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <tableColumns count="3">
-    <tableColumn id="1" name="layout_id" dataDxfId="32"/>
-    <tableColumn id="2" name="well_position" dataDxfId="31"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="30"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="31"/>
+    <tableColumn id="2" name="well_position" dataDxfId="30"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="27"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="26"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="25"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="24"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="23"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="22"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="21"/>
-    <tableColumn id="8" name="content_type" dataDxfId="20"/>
-    <tableColumn id="9" name="is_control" dataDxfId="19"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="18"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="26"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="25"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="24"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="23"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="22"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="21"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="20"/>
+    <tableColumn id="8" name="content_type" dataDxfId="19"/>
+    <tableColumn id="9" name="is_control" dataDxfId="18"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="15"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="14"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="13"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="12"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="14"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="13"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="12"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3509,23 +3509,23 @@
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="9"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="8"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="7"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="6"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="8"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="7"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="6"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table11" displayName="Table11" ref="A1:C9" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table11" displayName="Table11" ref="A1:C9" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="4" name="amplicon_name" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="1" name="sequence_name" dataDxfId="3" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="sequence" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="amplicon_name" dataDxfId="2" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="sequence_name" dataDxfId="1" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="0" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3932,7 +3932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C74"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -3945,25 +3945,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="19">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
@@ -4740,7 +4740,7 @@
   </sheetPr>
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4881,7 +4881,7 @@
   <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5168,7 +5168,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="17" t="s">
         <v>159</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -5179,42 +5179,42 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="20"/>
+      <c r="A2" s="17"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="20"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="20"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="20"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="20"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="20"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="20"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="20"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>

--- a/python/tests/pytest_empty.xlsx
+++ b/python/tests/pytest_empty.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="162">
   <si>
     <t>description</t>
   </si>
@@ -901,6 +901,26 @@
   </si>
   <si>
     <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>refseq_orientation_match</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>[optional]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t xml:space="preserve"> Is the orientation of the amplicon match the NCBI whole genome reference sequence (RefSeq)? (TRUE/FALSE) Default set to True. Please consult the schematic drawing on the amplicon tab for more details.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1388,531 +1408,548 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="119">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
+  <dxfs count="120">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -3358,9 +3395,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
-    <tableColumn id="2" name="Column names" dataDxfId="117"/>
-    <tableColumn id="3" name="Description" dataDxfId="116"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="119"/>
+    <tableColumn id="2" name="Column names" dataDxfId="118"/>
+    <tableColumn id="3" name="Description" dataDxfId="117"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3369,86 +3406,87 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="81" dataDxfId="80"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="79" dataDxfId="78"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="77" dataDxfId="76"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="80" dataDxfId="79"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="78" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="73"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="72"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="71"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="70"/>
-    <tableColumn id="5" name="target_start" dataDxfId="69"/>
-    <tableColumn id="6" name="target_end" dataDxfId="68"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="67"/>
+    <tableColumn id="1" name="target_name" dataDxfId="74"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="73"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="72"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="71"/>
+    <tableColumn id="5" name="target_start" dataDxfId="70"/>
+    <tableColumn id="6" name="target_end" dataDxfId="69"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" dataDxfId="67">
   <tableColumns count="1">
-    <tableColumn id="1" name="description" dataDxfId="65"/>
+    <tableColumn id="1" name="description" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="62"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="61"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="60"/>
+    <tableColumn id="1" name="target_name" dataDxfId="63"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="62"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="57"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="56"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="55"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="54"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="58"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="57"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="56"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
   <tableColumns count="14">
-    <tableColumn id="14" name="amplicon_name" dataDxfId="51"/>
-    <tableColumn id="1" name="guide_name" dataDxfId="50"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="49"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="48"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="47"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="46"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="45"/>
-    <tableColumn id="7" name="chrom" dataDxfId="44"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="43"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="42"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="41"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="40"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="39"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="38"/>
+    <tableColumn id="14" name="amplicon_name" dataDxfId="52"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="51"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="50"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="49"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="48"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="47"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="46"/>
+    <tableColumn id="7" name="chrom" dataDxfId="45"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="44"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="43"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="42"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="41"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="40"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <tableColumns count="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:Q9" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+  <tableColumns count="3">
+    <tableColumn id="3" name="refseq_orientation_match" dataDxfId="36"/>
     <tableColumn id="1" name="score" dataDxfId="35"/>
     <tableColumn id="2" name="description" dataDxfId="34"/>
   </tableColumns>
@@ -3500,9 +3538,9 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
-    <tableColumn id="2" name="Column names" dataDxfId="114"/>
-    <tableColumn id="3" name="Description" dataDxfId="113"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="116"/>
+    <tableColumn id="2" name="Column names" dataDxfId="115"/>
+    <tableColumn id="3" name="Description" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3532,11 +3570,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A70:C75" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="112"/>
-    <tableColumn id="2" name="Column names" dataDxfId="111"/>
-    <tableColumn id="3" name="Description" dataDxfId="110"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="113"/>
+    <tableColumn id="2" name="Column names" dataDxfId="112"/>
+    <tableColumn id="3" name="Description" dataDxfId="111"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3545,53 +3583,53 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="109"/>
-    <tableColumn id="2" name="Column names" dataDxfId="108"/>
-    <tableColumn id="3" name="Description" dataDxfId="107"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="110"/>
+    <tableColumn id="2" name="Column names" dataDxfId="109"/>
+    <tableColumn id="3" name="Description" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A41:C46" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="106"/>
-    <tableColumn id="2" name="Column names" dataDxfId="105"/>
-    <tableColumn id="3" name="Description" dataDxfId="104"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="107"/>
+    <tableColumn id="2" name="Column names" dataDxfId="106"/>
+    <tableColumn id="3" name="Description" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A64:C69" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="103"/>
-    <tableColumn id="2" name="Column names" dataDxfId="102"/>
-    <tableColumn id="3" name="Description" dataDxfId="101"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="104"/>
+    <tableColumn id="2" name="Column names" dataDxfId="103"/>
+    <tableColumn id="3" name="Description" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A47:C63" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="100" dataDxfId="99"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="98" dataDxfId="97"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="96" dataDxfId="95"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="97" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="94" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C40" headerRowCount="0" totalsRowShown="0" dataDxfId="95" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="93" dataDxfId="92" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="91" dataDxfId="90" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="89" dataDxfId="88" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="94" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="92" dataDxfId="91" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="90" dataDxfId="89" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3600,9 +3638,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="87" dataDxfId="86"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="85" dataDxfId="84"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="83" dataDxfId="82"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="86" dataDxfId="85"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="84" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3930,10 +3968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+    <sheetView showGridLines="0" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
@@ -4250,296 +4288,305 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
-      <c r="A38" s="5"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="6" t="s">
-        <v>11</v>
+        <v>160</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" s="5"/>
       <c r="B39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" s="5"/>
+      <c r="B40" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C40" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C41" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="4" t="s">
+    <row r="42" spans="1:3" ht="30">
+      <c r="A42" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C41" s="16" t="s">
+      <c r="C42" s="16" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="B42" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="C42" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="43" spans="1:3" s="11" customFormat="1">
       <c r="A43" s="4"/>
       <c r="B43" s="6" t="s">
-        <v>20</v>
+        <v>149</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="6" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>124</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="6" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="6" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="6" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" s="6" t="s">
-        <v>21</v>
+        <v>104</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="B54" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C54" s="7" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="B54" s="6"/>
-      <c r="C54" s="8" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="6"/>
       <c r="C55" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="6"/>
       <c r="C56" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="6"/>
       <c r="C57" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="B58" s="6"/>
       <c r="C58" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="B59" s="6"/>
       <c r="C59" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="B60" s="6"/>
       <c r="C60" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="B61" s="6"/>
+      <c r="C61" s="8" t="s">
         <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="B61" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="B62" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C63" s="7" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="A64" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="45">
+      <c r="A65" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C65" s="16" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="B65" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="C65" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="6" t="s">
-        <v>27</v>
+        <v>151</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="B68" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="B69" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="C68" s="7" t="s">
+      <c r="C69" s="7" t="s">
         <v>154</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" customHeight="1">
       <c r="A70" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="C71" s="7" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="B71" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C71" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="B73" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="B74" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C75" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -4579,7 +4626,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -4738,10 +4785,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView showGridLines="0" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4760,13 +4807,13 @@
     <col min="12" max="12" width="21.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.1640625" style="5" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="25.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="14.83203125" style="5" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" style="5" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="6" customFormat="1">
+    <row r="1" spans="1:17" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
         <v>159</v>
       </c>
@@ -4810,13 +4857,16 @@
         <v>19</v>
       </c>
       <c r="O1" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="P1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:17">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
